--- a/tests/Feature/config/mortgage_zero.xlsx
+++ b/tests/Feature/config/mortgage_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>private</t>
   </si>
@@ -166,8 +166,11 @@
     <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1 extraDownpaymentAmount: 60000
+    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1 extraDownpaymentAmount: 150000
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1Mortgage payed 4 years faster due to extraDownpayments</t>
   </si>
   <si>
     <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1</t>
@@ -1869,10 +1872,10 @@
         <v>15000.0</v>
       </c>
       <c r="L18" s="1">
-        <v>203373.0</v>
+        <v>293373.0</v>
       </c>
       <c r="M18" s="1">
-        <v>1296627.0</v>
+        <v>1206627.0</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1883,7 +1886,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>1703373.0</v>
+        <v>1793373.0</v>
       </c>
       <c r="S18" s="1">
         <v>3000000.0</v>
@@ -1949,17 +1952,17 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8">
-        <v>151369.0</v>
+        <v>140862.0</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="8">
-        <v>12966.0</v>
+        <v>12066.0</v>
       </c>
       <c r="L19" s="8">
-        <v>198402.0</v>
+        <v>278796.0</v>
       </c>
       <c r="M19" s="8">
-        <v>1098224.0</v>
+        <v>927831.0</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
@@ -1970,13 +1973,13 @@
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="8">
-        <v>1901776.0</v>
+        <v>2072169.0</v>
       </c>
       <c r="S19" s="8">
         <v>3000000.0</v>
       </c>
       <c r="T19" s="8">
-        <v>1651369.0</v>
+        <v>1640862.0</v>
       </c>
       <c r="U19" s="8">
         <v>750000.0</v>
@@ -1997,20 +2000,20 @@
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="8">
-        <v>-155569.0</v>
+        <v>-145062.0</v>
       </c>
       <c r="AF19" s="8">
-        <v>-318142.0</v>
+        <v>-307635.0</v>
       </c>
       <c r="AG19" s="9"/>
       <c r="AH19" s="8">
-        <v>-151369.0</v>
+        <v>-140862.0</v>
       </c>
       <c r="AI19" s="8">
-        <v>-756845.0</v>
+        <v>-704310.0</v>
       </c>
       <c r="AJ19" s="8">
-        <v>-12966.0</v>
+        <v>-12066.0</v>
       </c>
       <c r="AK19" s="8"/>
       <c r="AL19" s="9"/>
@@ -2036,17 +2039,17 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="1">
-        <v>143527.0</v>
+        <v>121259.0</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="1">
-        <v>10982.0</v>
+        <v>9278.0</v>
       </c>
       <c r="L20" s="1">
-        <v>192545.0</v>
+        <v>261980.0</v>
       </c>
       <c r="M20" s="1">
-        <v>905679.0</v>
+        <v>665851.0</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2057,13 +2060,13 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>2094321.0</v>
+        <v>2334149.0</v>
       </c>
       <c r="S20" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>1794896.0</v>
+        <v>1762121.0</v>
       </c>
       <c r="U20" s="6">
         <v>750000.0</v>
@@ -2084,20 +2087,20 @@
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>-147727.0</v>
+        <v>-125459.0</v>
       </c>
       <c r="AF20" s="1">
-        <v>-465869.0</v>
+        <v>-433094.0</v>
       </c>
       <c r="AG20" s="2"/>
       <c r="AH20" s="1">
-        <v>-143527.0</v>
+        <v>-121259.0</v>
       </c>
       <c r="AI20" s="1">
-        <v>-717635.0</v>
+        <v>-606295.0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>-10982.0</v>
+        <v>-9278.0</v>
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="2"/>
@@ -2123,17 +2126,17 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1">
-        <v>134610.0</v>
+        <v>98964.0</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
-        <v>9057.0</v>
+        <v>6659.0</v>
       </c>
       <c r="L21" s="1">
-        <v>185553.0</v>
+        <v>242306.0</v>
       </c>
       <c r="M21" s="1">
-        <v>720127.0</v>
+        <v>423545.0</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2144,13 +2147,13 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>2279873.0</v>
+        <v>2576455.0</v>
       </c>
       <c r="S21" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>1929506.0</v>
+        <v>1861085.0</v>
       </c>
       <c r="U21" s="6">
         <v>750000.0</v>
@@ -2171,20 +2174,20 @@
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>-138810.0</v>
+        <v>-103164.0</v>
       </c>
       <c r="AF21" s="1">
-        <v>-604679.0</v>
+        <v>-536258.0</v>
       </c>
       <c r="AG21" s="2"/>
       <c r="AH21" s="1">
-        <v>-134610.0</v>
+        <v>-98964.0</v>
       </c>
       <c r="AI21" s="1">
-        <v>-673050.0</v>
+        <v>-494820.0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>-9057.0</v>
+        <v>-6659.0</v>
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="2"/>
@@ -2210,17 +2213,17 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1">
-        <v>124257.0</v>
+        <v>73082.0</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="1">
-        <v>7201.0</v>
+        <v>4235.0</v>
       </c>
       <c r="L22" s="1">
-        <v>177055.0</v>
+        <v>218847.0</v>
       </c>
       <c r="M22" s="1">
-        <v>543071.0</v>
+        <v>204699.0</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -2231,13 +2234,13 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>2456929.0</v>
+        <v>2795301.0</v>
       </c>
       <c r="S22" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>2053763.0</v>
+        <v>1934167.0</v>
       </c>
       <c r="U22" s="6">
         <v>750000.0</v>
@@ -2258,20 +2261,20 @@
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>-128457.0</v>
+        <v>-77282.0</v>
       </c>
       <c r="AF22" s="1">
-        <v>-733136.0</v>
+        <v>-613540.0</v>
       </c>
       <c r="AG22" s="2"/>
       <c r="AH22" s="1">
-        <v>-124257.0</v>
+        <v>-73082.0</v>
       </c>
       <c r="AI22" s="1">
-        <v>-621285.0</v>
+        <v>-365410.0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>-7201.0</v>
+        <v>-4235.0</v>
       </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="2"/>
@@ -2297,17 +2300,17 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1">
-        <v>111894.0</v>
+        <v>42176.0</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
-        <v>5431.0</v>
+        <v>2047.0</v>
       </c>
       <c r="L23" s="1">
-        <v>166464.0</v>
+        <v>190129.0</v>
       </c>
       <c r="M23" s="1">
-        <v>376608.0</v>
+        <v>14569.0</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -2318,13 +2321,13 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>2623392.0</v>
+        <v>2985431.0</v>
       </c>
       <c r="S23" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>2165657.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U23" s="6">
         <v>750000.0</v>
@@ -2345,20 +2348,20 @@
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>-116094.0</v>
+        <v>-46376.0</v>
       </c>
       <c r="AF23" s="1">
-        <v>-849230.0</v>
+        <v>-659916.0</v>
       </c>
       <c r="AG23" s="2"/>
       <c r="AH23" s="1">
-        <v>-111894.0</v>
+        <v>-42176.0</v>
       </c>
       <c r="AI23" s="1">
-        <v>-559470.0</v>
+        <v>-210880.0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>-5431.0</v>
+        <v>-2047.0</v>
       </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="2"/>
@@ -2384,17 +2387,17 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1">
-        <v>96517.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="1">
-        <v>3766.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>152751.0</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>223856.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -2405,13 +2408,13 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>2776144.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="S24" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>2262174.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U24" s="6">
         <v>750000.0</v>
@@ -2432,20 +2435,20 @@
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>-100717.0</v>
+        <v>-4200.0</v>
       </c>
       <c r="AF24" s="1">
-        <v>-949947.0</v>
+        <v>-664116.0</v>
       </c>
       <c r="AG24" s="2"/>
       <c r="AH24" s="1">
-        <v>-96517.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI24" s="1">
-        <v>-482585.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>-3766.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="2"/>
@@ -2471,17 +2474,17 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1">
-        <v>76116.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
-        <v>2239.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>133878.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>89979.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -2492,13 +2495,13 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>2910021.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="S25" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U25" s="6">
         <v>750000.0</v>
@@ -2519,20 +2522,20 @@
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>-80316.0</v>
+        <v>-4200.0</v>
       </c>
       <c r="AF25" s="1">
-        <v>-1030263.0</v>
+        <v>-668316.0</v>
       </c>
       <c r="AG25" s="2"/>
       <c r="AH25" s="1">
-        <v>-76116.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI25" s="1">
-        <v>-380580.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>-2239.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="2"/>
@@ -2585,7 +2588,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U26" s="6">
         <v>750000.0</v>
@@ -2609,7 +2612,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF26" s="1">
-        <v>-1034463.0</v>
+        <v>-672516.0</v>
       </c>
       <c r="AG26" s="2"/>
       <c r="AH26" s="1">
@@ -2672,7 +2675,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U27" s="6">
         <v>750000.0</v>
@@ -2696,7 +2699,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF27" s="1">
-        <v>-1038663.0</v>
+        <v>-676716.0</v>
       </c>
       <c r="AG27" s="2"/>
       <c r="AH27" s="1">
@@ -2759,7 +2762,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U28" s="6">
         <v>750000.0</v>
@@ -2783,7 +2786,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF28" s="1">
-        <v>-1042863.0</v>
+        <v>-680916.0</v>
       </c>
       <c r="AG28" s="2"/>
       <c r="AH28" s="1">
@@ -2846,7 +2849,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U29" s="6">
         <v>750000.0</v>
@@ -2870,7 +2873,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF29" s="1">
-        <v>-1047063.0</v>
+        <v>-685116.0</v>
       </c>
       <c r="AG29" s="2"/>
       <c r="AH29" s="1">
@@ -2933,7 +2936,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U30" s="6">
         <v>750000.0</v>
@@ -2957,7 +2960,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF30" s="1">
-        <v>-1051263.0</v>
+        <v>-689316.0</v>
       </c>
       <c r="AG30" s="2"/>
       <c r="AH30" s="1">
@@ -3020,7 +3023,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U31" s="6">
         <v>750000.0</v>
@@ -3044,7 +3047,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF31" s="1">
-        <v>-1055463.0</v>
+        <v>-693516.0</v>
       </c>
       <c r="AG31" s="2"/>
       <c r="AH31" s="1">
@@ -3107,7 +3110,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U32" s="6">
         <v>750000.0</v>
@@ -3131,7 +3134,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF32" s="1">
-        <v>-1059663.0</v>
+        <v>-697716.0</v>
       </c>
       <c r="AG32" s="2"/>
       <c r="AH32" s="1">
@@ -3194,7 +3197,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U33" s="6">
         <v>750000.0</v>
@@ -3218,7 +3221,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF33" s="1">
-        <v>-1063863.0</v>
+        <v>-701916.0</v>
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" s="1">
@@ -3281,7 +3284,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U34" s="6">
         <v>750000.0</v>
@@ -3305,7 +3308,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF34" s="1">
-        <v>-1068063.0</v>
+        <v>-706116.0</v>
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" s="1">
@@ -3368,7 +3371,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U35" s="6">
         <v>750000.0</v>
@@ -3392,7 +3395,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF35" s="1">
-        <v>-1072263.0</v>
+        <v>-710316.0</v>
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" s="1">
@@ -3455,7 +3458,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U36" s="6">
         <v>750000.0</v>
@@ -3479,7 +3482,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF36" s="1">
-        <v>-1076463.0</v>
+        <v>-714516.0</v>
       </c>
       <c r="AG36" s="2"/>
       <c r="AH36" s="1">
@@ -3542,7 +3545,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U37" s="6">
         <v>750000.0</v>
@@ -3566,7 +3569,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF37" s="1">
-        <v>-1080663.0</v>
+        <v>-718716.0</v>
       </c>
       <c r="AG37" s="2"/>
       <c r="AH37" s="1">
@@ -3629,7 +3632,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U38" s="6">
         <v>750000.0</v>
@@ -3653,7 +3656,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF38" s="1">
-        <v>-1084863.0</v>
+        <v>-722916.0</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1">
@@ -3716,7 +3719,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U39" s="6">
         <v>750000.0</v>
@@ -3740,7 +3743,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF39" s="1">
-        <v>-1089063.0</v>
+        <v>-727116.0</v>
       </c>
       <c r="AG39" s="2"/>
       <c r="AH39" s="1">
@@ -3803,7 +3806,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U40" s="11">
         <v>750000.0</v>
@@ -3827,7 +3830,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF40" s="11">
-        <v>-1093263.0</v>
+        <v>-731316.0</v>
       </c>
       <c r="AG40" s="12"/>
       <c r="AH40" s="11">
@@ -3890,7 +3893,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U41" s="6">
         <v>750000.0</v>
@@ -3914,7 +3917,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF41" s="1">
-        <v>-1097463.0</v>
+        <v>-735516.0</v>
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="1">
@@ -3977,7 +3980,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U42" s="6">
         <v>750000.0</v>
@@ -4001,7 +4004,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF42" s="1">
-        <v>-1101663.0</v>
+        <v>-739716.0</v>
       </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="1">
@@ -4064,7 +4067,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U43" s="6">
         <v>750000.0</v>
@@ -4088,7 +4091,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF43" s="1">
-        <v>-1105863.0</v>
+        <v>-743916.0</v>
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="1">
@@ -4151,7 +4154,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U44" s="6">
         <v>750000.0</v>
@@ -4175,7 +4178,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF44" s="1">
-        <v>-1110063.0</v>
+        <v>-748116.0</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="1">
@@ -4238,7 +4241,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U45" s="6">
         <v>750000.0</v>
@@ -4262,7 +4265,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF45" s="1">
-        <v>-1114263.0</v>
+        <v>-752316.0</v>
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="1">
@@ -4325,7 +4328,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U46" s="6">
         <v>750000.0</v>
@@ -4349,7 +4352,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF46" s="1">
-        <v>-1118463.0</v>
+        <v>-756516.0</v>
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" s="1">
@@ -4412,7 +4415,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U47" s="6">
         <v>750000.0</v>
@@ -4436,7 +4439,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF47" s="1">
-        <v>-1122663.0</v>
+        <v>-760716.0</v>
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" s="1">
@@ -4499,7 +4502,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U48" s="6">
         <v>750000.0</v>
@@ -4523,7 +4526,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF48" s="1">
-        <v>-1126863.0</v>
+        <v>-764916.0</v>
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" s="1">
@@ -4586,7 +4589,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U49" s="6">
         <v>750000.0</v>
@@ -4610,7 +4613,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF49" s="1">
-        <v>-1131063.0</v>
+        <v>-769116.0</v>
       </c>
       <c r="AG49" s="2"/>
       <c r="AH49" s="1">
@@ -4673,7 +4676,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U50" s="6">
         <v>750000.0</v>
@@ -4697,7 +4700,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF50" s="1">
-        <v>-1135263.0</v>
+        <v>-773316.0</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="1">
@@ -4760,7 +4763,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U51" s="6">
         <v>750000.0</v>
@@ -4784,7 +4787,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF51" s="1">
-        <v>-1139463.0</v>
+        <v>-777516.0</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="1">
@@ -4847,7 +4850,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T52" s="5">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U52" s="5">
         <v>750000.0</v>
@@ -4871,7 +4874,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF52" s="5">
-        <v>-1143663.0</v>
+        <v>-781716.0</v>
       </c>
       <c r="AG52" s="16"/>
       <c r="AH52" s="5">
@@ -7263,10 +7266,10 @@
         <v>15000.0</v>
       </c>
       <c r="L18" s="1">
-        <v>203373.0</v>
+        <v>293373.0</v>
       </c>
       <c r="M18" s="1">
-        <v>1296627.0</v>
+        <v>1206627.0</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="2"/>
@@ -7275,7 +7278,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>1703373.0</v>
+        <v>1793373.0</v>
       </c>
       <c r="S18" s="1">
         <v>3000000.0</v>
@@ -7318,7 +7321,7 @@
         <v>-162573.0</v>
       </c>
       <c r="AG18" s="2">
-        <v>0.432209</v>
+        <v>0.402209</v>
       </c>
       <c r="AH18" s="1">
         <v>-158373.0</v>
@@ -7357,19 +7360,19 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8">
-        <v>151369.0</v>
+        <v>140862.0</v>
       </c>
       <c r="J19" s="9">
         <v>0.01</v>
       </c>
       <c r="K19" s="8">
-        <v>12966.0</v>
+        <v>12066.0</v>
       </c>
       <c r="L19" s="8">
-        <v>198402.0</v>
+        <v>278796.0</v>
       </c>
       <c r="M19" s="8">
-        <v>1098224.0</v>
+        <v>927831.0</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
@@ -7378,13 +7381,13 @@
       </c>
       <c r="Q19" s="9"/>
       <c r="R19" s="8">
-        <v>1901776.0</v>
+        <v>2072169.0</v>
       </c>
       <c r="S19" s="8">
         <v>3000000.0</v>
       </c>
       <c r="T19" s="8">
-        <v>1651369.0</v>
+        <v>1640862.0</v>
       </c>
       <c r="U19" s="8">
         <v>750000.0</v>
@@ -7415,22 +7418,22 @@
       </c>
       <c r="AD19" s="9"/>
       <c r="AE19" s="8">
-        <v>-155569.0</v>
+        <v>-145062.0</v>
       </c>
       <c r="AF19" s="8">
-        <v>-318142.0</v>
+        <v>-307635.0</v>
       </c>
       <c r="AG19" s="9">
-        <v>0.36607466666667</v>
+        <v>0.309277</v>
       </c>
       <c r="AH19" s="8">
-        <v>-151369.0</v>
+        <v>-140862.0</v>
       </c>
       <c r="AI19" s="8">
-        <v>-756845.0</v>
+        <v>-704310.0</v>
       </c>
       <c r="AJ19" s="8">
-        <v>-12966.0</v>
+        <v>-12066.0</v>
       </c>
       <c r="AK19" s="8"/>
       <c r="AL19" s="9"/>
@@ -7458,19 +7461,19 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="1">
-        <v>143527.0</v>
+        <v>121259.0</v>
       </c>
       <c r="J20" s="2">
         <v>0.01</v>
       </c>
       <c r="K20" s="1">
-        <v>10982.0</v>
+        <v>9278.0</v>
       </c>
       <c r="L20" s="1">
-        <v>192545.0</v>
+        <v>261980.0</v>
       </c>
       <c r="M20" s="1">
-        <v>905679.0</v>
+        <v>665851.0</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="2"/>
@@ -7479,13 +7482,13 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>2094321.0</v>
+        <v>2334149.0</v>
       </c>
       <c r="S20" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T20" s="1">
-        <v>1794896.0</v>
+        <v>1762121.0</v>
       </c>
       <c r="U20" s="6">
         <v>750000.0</v>
@@ -7516,22 +7519,22 @@
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="1">
-        <v>-147727.0</v>
+        <v>-125459.0</v>
       </c>
       <c r="AF20" s="1">
-        <v>-465869.0</v>
+        <v>-433094.0</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.301893</v>
+        <v>0.22195033333333</v>
       </c>
       <c r="AH20" s="1">
-        <v>-143527.0</v>
+        <v>-121259.0</v>
       </c>
       <c r="AI20" s="1">
-        <v>-717635.0</v>
+        <v>-606295.0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>-10982.0</v>
+        <v>-9278.0</v>
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="2"/>
@@ -7559,19 +7562,19 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1">
-        <v>134610.0</v>
+        <v>98964.0</v>
       </c>
       <c r="J21" s="2">
         <v>0.01</v>
       </c>
       <c r="K21" s="1">
-        <v>9057.0</v>
+        <v>6659.0</v>
       </c>
       <c r="L21" s="1">
-        <v>185553.0</v>
+        <v>242306.0</v>
       </c>
       <c r="M21" s="1">
-        <v>720127.0</v>
+        <v>423545.0</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="2"/>
@@ -7580,13 +7583,13 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>2279873.0</v>
+        <v>2576455.0</v>
       </c>
       <c r="S21" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T21" s="1">
-        <v>1929506.0</v>
+        <v>1861085.0</v>
       </c>
       <c r="U21" s="6">
         <v>750000.0</v>
@@ -7617,22 +7620,22 @@
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1">
-        <v>-138810.0</v>
+        <v>-103164.0</v>
       </c>
       <c r="AF21" s="1">
-        <v>-604679.0</v>
+        <v>-536258.0</v>
       </c>
       <c r="AG21" s="2">
-        <v>0.24004233333333</v>
+        <v>0.14118166666667</v>
       </c>
       <c r="AH21" s="1">
-        <v>-134610.0</v>
+        <v>-98964.0</v>
       </c>
       <c r="AI21" s="1">
-        <v>-673050.0</v>
+        <v>-494820.0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>-9057.0</v>
+        <v>-6659.0</v>
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="2"/>
@@ -7660,19 +7663,19 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1">
-        <v>124257.0</v>
+        <v>73082.0</v>
       </c>
       <c r="J22" s="2">
         <v>0.01</v>
       </c>
       <c r="K22" s="1">
-        <v>7201.0</v>
+        <v>4235.0</v>
       </c>
       <c r="L22" s="1">
-        <v>177055.0</v>
+        <v>218847.0</v>
       </c>
       <c r="M22" s="1">
-        <v>543071.0</v>
+        <v>204699.0</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="2"/>
@@ -7681,13 +7684,13 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>2456929.0</v>
+        <v>2795301.0</v>
       </c>
       <c r="S22" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T22" s="1">
-        <v>2053763.0</v>
+        <v>1934167.0</v>
       </c>
       <c r="U22" s="6">
         <v>750000.0</v>
@@ -7718,22 +7721,22 @@
       </c>
       <c r="AD22" s="2"/>
       <c r="AE22" s="1">
-        <v>-128457.0</v>
+        <v>-77282.0</v>
       </c>
       <c r="AF22" s="1">
-        <v>-733136.0</v>
+        <v>-613540.0</v>
       </c>
       <c r="AG22" s="2">
-        <v>0.18102366666667</v>
+        <v>0.068233</v>
       </c>
       <c r="AH22" s="1">
-        <v>-124257.0</v>
+        <v>-73082.0</v>
       </c>
       <c r="AI22" s="1">
-        <v>-621285.0</v>
+        <v>-365410.0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>-7201.0</v>
+        <v>-4235.0</v>
       </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="2"/>
@@ -7761,19 +7764,19 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1">
-        <v>111894.0</v>
+        <v>42176.0</v>
       </c>
       <c r="J23" s="2">
         <v>0.01</v>
       </c>
       <c r="K23" s="1">
-        <v>5431.0</v>
+        <v>2047.0</v>
       </c>
       <c r="L23" s="1">
-        <v>166464.0</v>
+        <v>190129.0</v>
       </c>
       <c r="M23" s="1">
-        <v>376608.0</v>
+        <v>14569.0</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="2"/>
@@ -7782,13 +7785,13 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>2623392.0</v>
+        <v>2985431.0</v>
       </c>
       <c r="S23" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T23" s="1">
-        <v>2165657.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U23" s="6">
         <v>750000.0</v>
@@ -7819,22 +7822,22 @@
       </c>
       <c r="AD23" s="2"/>
       <c r="AE23" s="1">
-        <v>-116094.0</v>
+        <v>-46376.0</v>
       </c>
       <c r="AF23" s="1">
-        <v>-849230.0</v>
+        <v>-659916.0</v>
       </c>
       <c r="AG23" s="2">
-        <v>0.125536</v>
+        <v>0.0048563333333333</v>
       </c>
       <c r="AH23" s="1">
-        <v>-111894.0</v>
+        <v>-42176.0</v>
       </c>
       <c r="AI23" s="1">
-        <v>-559470.0</v>
+        <v>-210880.0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>-5431.0</v>
+        <v>-2047.0</v>
       </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="2"/>
@@ -7861,21 +7864,11 @@
         <v>0.0</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="1">
-        <v>96517.0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="K24" s="1">
-        <v>3766.0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>152751.0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>223856.0</v>
-      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="2"/>
       <c r="P24" s="6">
@@ -7883,13 +7876,13 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>2776144.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="S24" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T24" s="1">
-        <v>2262174.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U24" s="6">
         <v>750000.0</v>
@@ -7920,27 +7913,25 @@
       </c>
       <c r="AD24" s="2"/>
       <c r="AE24" s="1">
-        <v>-100717.0</v>
+        <v>-4200.0</v>
       </c>
       <c r="AF24" s="1">
-        <v>-949947.0</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>0.074618666666667</v>
-      </c>
+        <v>-664116.0</v>
+      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" s="1">
-        <v>-96517.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI24" s="1">
-        <v>-482585.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>-3766.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="2"/>
       <c r="AM24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:39">
@@ -7962,21 +7953,11 @@
         <v>0.0</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="1">
-        <v>76116.0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2239.0</v>
-      </c>
-      <c r="L25" s="1">
-        <v>133878.0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>89979.0</v>
-      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="2"/>
       <c r="P25" s="6">
@@ -7984,13 +7965,13 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>2910021.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="S25" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T25" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U25" s="6">
         <v>750000.0</v>
@@ -8021,27 +8002,25 @@
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="1">
-        <v>-80316.0</v>
+        <v>-4200.0</v>
       </c>
       <c r="AF25" s="1">
-        <v>-1030263.0</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>0.029993</v>
-      </c>
+        <v>-668316.0</v>
+      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" s="1">
-        <v>-76116.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI25" s="1">
-        <v>-380580.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>-2239.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="2"/>
       <c r="AM25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -8081,7 +8060,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T26" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U26" s="6">
         <v>750000.0</v>
@@ -8115,7 +8094,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF26" s="1">
-        <v>-1034463.0</v>
+        <v>-672516.0</v>
       </c>
       <c r="AG26" s="2"/>
       <c r="AH26" s="1">
@@ -8130,7 +8109,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="2"/>
       <c r="AM26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:39">
@@ -8170,7 +8149,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T27" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U27" s="6">
         <v>750000.0</v>
@@ -8204,7 +8183,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF27" s="1">
-        <v>-1038663.0</v>
+        <v>-676716.0</v>
       </c>
       <c r="AG27" s="2"/>
       <c r="AH27" s="1">
@@ -8219,7 +8198,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="2"/>
       <c r="AM27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:39">
@@ -8259,7 +8238,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T28" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U28" s="6">
         <v>750000.0</v>
@@ -8293,7 +8272,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF28" s="1">
-        <v>-1042863.0</v>
+        <v>-680916.0</v>
       </c>
       <c r="AG28" s="2"/>
       <c r="AH28" s="1">
@@ -8308,7 +8287,7 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="2"/>
       <c r="AM28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:39">
@@ -8348,7 +8327,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T29" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U29" s="6">
         <v>750000.0</v>
@@ -8382,7 +8361,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF29" s="1">
-        <v>-1047063.0</v>
+        <v>-685116.0</v>
       </c>
       <c r="AG29" s="2"/>
       <c r="AH29" s="1">
@@ -8397,7 +8376,7 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="2"/>
       <c r="AM29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:39">
@@ -8437,7 +8416,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T30" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U30" s="6">
         <v>750000.0</v>
@@ -8471,7 +8450,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF30" s="1">
-        <v>-1051263.0</v>
+        <v>-689316.0</v>
       </c>
       <c r="AG30" s="2"/>
       <c r="AH30" s="1">
@@ -8486,7 +8465,7 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="2"/>
       <c r="AM30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:39">
@@ -8526,7 +8505,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T31" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U31" s="6">
         <v>750000.0</v>
@@ -8560,7 +8539,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF31" s="1">
-        <v>-1055463.0</v>
+        <v>-693516.0</v>
       </c>
       <c r="AG31" s="2"/>
       <c r="AH31" s="1">
@@ -8575,7 +8554,7 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="2"/>
       <c r="AM31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:39">
@@ -8615,7 +8594,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T32" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U32" s="6">
         <v>750000.0</v>
@@ -8649,7 +8628,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF32" s="1">
-        <v>-1059663.0</v>
+        <v>-697716.0</v>
       </c>
       <c r="AG32" s="2"/>
       <c r="AH32" s="1">
@@ -8664,7 +8643,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="2"/>
       <c r="AM32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:39">
@@ -8704,7 +8683,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T33" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U33" s="6">
         <v>750000.0</v>
@@ -8738,7 +8717,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF33" s="1">
-        <v>-1063863.0</v>
+        <v>-701916.0</v>
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" s="1">
@@ -8753,7 +8732,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="2"/>
       <c r="AM33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:39">
@@ -8793,7 +8772,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T34" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U34" s="6">
         <v>750000.0</v>
@@ -8827,7 +8806,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF34" s="1">
-        <v>-1068063.0</v>
+        <v>-706116.0</v>
       </c>
       <c r="AG34" s="2"/>
       <c r="AH34" s="1">
@@ -8842,7 +8821,7 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="2"/>
       <c r="AM34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:39">
@@ -8882,7 +8861,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T35" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U35" s="6">
         <v>750000.0</v>
@@ -8916,7 +8895,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF35" s="1">
-        <v>-1072263.0</v>
+        <v>-710316.0</v>
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" s="1">
@@ -8931,7 +8910,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="2"/>
       <c r="AM35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:39">
@@ -8971,7 +8950,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T36" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U36" s="6">
         <v>750000.0</v>
@@ -9005,7 +8984,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF36" s="1">
-        <v>-1076463.0</v>
+        <v>-714516.0</v>
       </c>
       <c r="AG36" s="2"/>
       <c r="AH36" s="1">
@@ -9020,7 +8999,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="2"/>
       <c r="AM36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:39">
@@ -9060,7 +9039,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T37" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U37" s="6">
         <v>750000.0</v>
@@ -9094,7 +9073,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF37" s="1">
-        <v>-1080663.0</v>
+        <v>-718716.0</v>
       </c>
       <c r="AG37" s="2"/>
       <c r="AH37" s="1">
@@ -9109,7 +9088,7 @@
       <c r="AK37" s="1"/>
       <c r="AL37" s="2"/>
       <c r="AM37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:39">
@@ -9149,7 +9128,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U38" s="6">
         <v>750000.0</v>
@@ -9183,7 +9162,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF38" s="1">
-        <v>-1084863.0</v>
+        <v>-722916.0</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1">
@@ -9198,7 +9177,7 @@
       <c r="AK38" s="1"/>
       <c r="AL38" s="2"/>
       <c r="AM38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:39">
@@ -9238,7 +9217,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T39" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U39" s="6">
         <v>750000.0</v>
@@ -9272,7 +9251,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF39" s="1">
-        <v>-1089063.0</v>
+        <v>-727116.0</v>
       </c>
       <c r="AG39" s="2"/>
       <c r="AH39" s="1">
@@ -9287,7 +9266,7 @@
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
       <c r="AM39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:39">
@@ -9327,7 +9306,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U40" s="11">
         <v>750000.0</v>
@@ -9361,7 +9340,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF40" s="11">
-        <v>-1093263.0</v>
+        <v>-731316.0</v>
       </c>
       <c r="AG40" s="12"/>
       <c r="AH40" s="11">
@@ -9376,7 +9355,7 @@
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:39">
@@ -9416,7 +9395,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U41" s="6">
         <v>750000.0</v>
@@ -9450,7 +9429,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF41" s="1">
-        <v>-1097463.0</v>
+        <v>-735516.0</v>
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="1">
@@ -9465,7 +9444,7 @@
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
       <c r="AM41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:39">
@@ -9505,7 +9484,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U42" s="6">
         <v>750000.0</v>
@@ -9539,7 +9518,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF42" s="1">
-        <v>-1101663.0</v>
+        <v>-739716.0</v>
       </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="1">
@@ -9554,7 +9533,7 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
       <c r="AM42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:39">
@@ -9594,7 +9573,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U43" s="6">
         <v>750000.0</v>
@@ -9628,7 +9607,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF43" s="1">
-        <v>-1105863.0</v>
+        <v>-743916.0</v>
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="1">
@@ -9643,7 +9622,7 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
       <c r="AM43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:39">
@@ -9683,7 +9662,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U44" s="6">
         <v>750000.0</v>
@@ -9717,7 +9696,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF44" s="1">
-        <v>-1110063.0</v>
+        <v>-748116.0</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="1">
@@ -9732,7 +9711,7 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
       <c r="AM44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:39">
@@ -9772,7 +9751,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U45" s="6">
         <v>750000.0</v>
@@ -9806,7 +9785,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF45" s="1">
-        <v>-1114263.0</v>
+        <v>-752316.0</v>
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="1">
@@ -9821,7 +9800,7 @@
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
       <c r="AM45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:39">
@@ -9861,7 +9840,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U46" s="6">
         <v>750000.0</v>
@@ -9895,7 +9874,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF46" s="1">
-        <v>-1118463.0</v>
+        <v>-756516.0</v>
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" s="1">
@@ -9910,7 +9889,7 @@
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
       <c r="AM46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:39">
@@ -9950,7 +9929,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U47" s="6">
         <v>750000.0</v>
@@ -9984,7 +9963,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF47" s="1">
-        <v>-1122663.0</v>
+        <v>-760716.0</v>
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" s="1">
@@ -9999,7 +9978,7 @@
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
       <c r="AM47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:39">
@@ -10039,7 +10018,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U48" s="6">
         <v>750000.0</v>
@@ -10073,7 +10052,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF48" s="1">
-        <v>-1126863.0</v>
+        <v>-764916.0</v>
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" s="1">
@@ -10088,7 +10067,7 @@
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
       <c r="AM48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:39">
@@ -10128,7 +10107,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U49" s="6">
         <v>750000.0</v>
@@ -10162,7 +10141,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF49" s="1">
-        <v>-1131063.0</v>
+        <v>-769116.0</v>
       </c>
       <c r="AG49" s="2"/>
       <c r="AH49" s="1">
@@ -10177,7 +10156,7 @@
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
       <c r="AM49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:39">
@@ -10217,7 +10196,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U50" s="6">
         <v>750000.0</v>
@@ -10251,7 +10230,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF50" s="1">
-        <v>-1135263.0</v>
+        <v>-773316.0</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="1">
@@ -10266,7 +10245,7 @@
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
       <c r="AM50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:39">
@@ -10306,7 +10285,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U51" s="6">
         <v>750000.0</v>
@@ -10340,7 +10319,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF51" s="1">
-        <v>-1139463.0</v>
+        <v>-777516.0</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="1">
@@ -10355,7 +10334,7 @@
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
       <c r="AM51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:39">
@@ -10395,7 +10374,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T52" s="5">
-        <v>2338290.0</v>
+        <v>1976343.0</v>
       </c>
       <c r="U52" s="5">
         <v>750000.0</v>
@@ -10429,7 +10408,7 @@
         <v>-4200.0</v>
       </c>
       <c r="AF52" s="5">
-        <v>-1143663.0</v>
+        <v>-781716.0</v>
       </c>
       <c r="AG52" s="16"/>
       <c r="AH52" s="5">
@@ -10444,7 +10423,7 @@
       <c r="AK52" s="5"/>
       <c r="AL52" s="16"/>
       <c r="AM52" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:39">
@@ -11577,7 +11556,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/tests/Feature/config/mortgage_zero.xlsx
+++ b/tests/Feature/config/mortgage_zero.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3600,1309 +3600,639 @@
       <c r="AM37"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
         <v>9000000.0</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="1">
+      <c r="Q38" s="16"/>
+      <c r="R38" s="5">
         <v>9000000.0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>9000000.0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>8368947.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>2250000.0</v>
       </c>
-      <c r="V38" s="2"/>
-      <c r="W38" s="1">
+      <c r="V38" s="16"/>
+      <c r="W38" s="5">
         <v>5500.0</v>
       </c>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="X38" s="16"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-12600.0</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-4465293.0</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="2"/>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W39" s="1"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-4477893.0</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
+      <c r="I40" s="11"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>9000000.0</v>
-      </c>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11">
-        <v>9000000.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>9000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>8368947.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>2250000.0</v>
-      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="12"/>
-      <c r="W40" s="11">
-        <v>5500.0</v>
-      </c>
+      <c r="W40" s="11"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11"/>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-4490493.0</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W41" s="1"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-4503093.0</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41"/>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W42" s="1"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-4515693.0</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42"/>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
+      <c r="I43" s="1"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W43" s="1"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-4528293.0</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43"/>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W44" s="1"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1"/>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-4540893.0</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44"/>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W45" s="1"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-4553493.0</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45"/>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
+      <c r="I46" s="1"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W46" s="1"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1"/>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-4566093.0</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46"/>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
+      <c r="I47" s="1"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W47" s="1"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1"/>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-4578693.0</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47"/>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
+      <c r="I48" s="1"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W48" s="1"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1"/>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-4591293.0</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48"/>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
+      <c r="I49" s="1"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W49" s="1"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-4603893.0</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49"/>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
+      <c r="I50" s="1"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0</v>
-      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W50" s="1"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-4616493.0</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>9000000.0</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>9000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>8368947.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>2250000.0</v>
-      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="1">
-        <v>5500.0</v>
-      </c>
+      <c r="W51" s="1"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1"/>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-4629093.0</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51"/>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5">
-        <v>0</v>
-      </c>
-      <c r="L52" s="5">
-        <v>0</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>9000000.0</v>
-      </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="5">
-        <v>9000000.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>9000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>8368947.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>2250000.0</v>
-      </c>
-      <c r="V52" s="16"/>
-      <c r="W52" s="5">
-        <v>5500.0</v>
-      </c>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="16"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-12600.0</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-4641693.0</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -6024,7 +5354,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9152,112 +8482,101 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T38" s="1">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="T38" s="5">
         <v>3105300.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>750000.0</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>4200.0</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AA38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-4200.0</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-1708500.0</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -9266,87 +8585,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-1712700.0</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -9355,87 +8625,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>3000000.0</v>
-      </c>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>3105300.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>750000.0</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>0</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>4200.0</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-1716900.0</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -9444,87 +8665,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-1721100.0</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -9533,87 +8704,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-1725300.0</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -9622,87 +8743,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-1729500.0</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -9711,87 +8782,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-1733700.0</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -9800,87 +8821,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-1737900.0</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -9889,87 +8860,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>0</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-1742100.0</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -9978,87 +8899,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-1746300.0</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -10067,87 +8938,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-1750500.0</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -10156,87 +8977,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-1754700.0</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -10245,87 +9016,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-1758900.0</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -10334,157 +9055,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>3105300.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>0</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-1763100.0</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>3105300.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>750000.0</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>0</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>4200.0</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-1767300.0</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -11606,7 +10238,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14712,112 +13344,101 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T38" s="1">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="T38" s="5">
         <v>2338290.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>750000.0</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>4200.0</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AA38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-4200.0</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-1084863.0</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -14826,87 +13447,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-1089063.0</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -14915,87 +13487,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>3000000.0</v>
-      </c>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>2338290.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>750000.0</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>0</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>4200.0</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-1093263.0</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -15004,87 +13527,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-1097463.0</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -15093,87 +13566,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-1101663.0</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -15182,87 +13605,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-1105863.0</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -15271,87 +13644,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-1110063.0</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -15360,87 +13683,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-1114263.0</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -15449,87 +13722,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>0</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-1118463.0</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -15538,87 +13761,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-1122663.0</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -15627,87 +13800,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-1126863.0</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -15716,87 +13839,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-1131063.0</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -15805,87 +13878,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-1135263.0</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -15894,157 +13917,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>2338290.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>0</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-1139463.0</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>2338290.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>750000.0</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>0</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>4200.0</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-1143663.0</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -17166,7 +15100,7 @@
   <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A52" sqref="A52:AM52"/>
+      <selection activeCell="A38" sqref="A38:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20294,112 +18228,101 @@
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>2043</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="5">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="16"/>
       <c r="E38" s="5">
         <v>0.0</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T38" s="1">
+      <c r="F38" s="16"/>
+      <c r="G38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="T38" s="5">
         <v>2925357.0</v>
       </c>
-      <c r="U38" s="6">
+      <c r="U38" s="5">
         <v>750000.0</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="16">
         <v>0.25</v>
       </c>
-      <c r="W38" s="1">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="5">
         <v>4200.0</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="16">
         <v>0.003</v>
       </c>
-      <c r="AA38" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="1">
+      <c r="AA38" s="5">
+        <v>3000000.0</v>
+      </c>
+      <c r="AB38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="5">
         <v>-4200.0</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="5">
         <v>-1671930.0</v>
       </c>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" t="s">
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AI38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39" s="1">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
@@ -20408,87 +18331,38 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V39" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0</v>
-      </c>
-      <c r="X39" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>-1676130.0</v>
-      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="10">
-        <v>2045</v>
-      </c>
-      <c r="B40" s="11">
-        <v>50</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="12"/>
@@ -20497,87 +18371,38 @@
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="11">
-        <v>3000000.0</v>
-      </c>
+      <c r="P40" s="11"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>2925357.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>750000.0</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="W40" s="11">
-        <v>0</v>
-      </c>
-      <c r="X40" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>4200.0</v>
-      </c>
-      <c r="Z40" s="12">
-        <v>0.003</v>
-      </c>
-      <c r="AA40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="11">
-        <v>0</v>
-      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
       <c r="AD40" s="12"/>
-      <c r="AE40" s="11">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF40" s="11">
-        <v>-1680330.0</v>
-      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="12"/>
-      <c r="AH40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AI40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AJ40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
-      <c r="AM40" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41" s="1">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
@@ -20586,87 +18411,37 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U41" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>-1684530.0</v>
-      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
-      <c r="AM41" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42" s="1">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2"/>
@@ -20675,87 +18450,37 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>-1688730.0</v>
-      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
-      <c r="AM42" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43" s="1">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2"/>
@@ -20764,87 +18489,37 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U43" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>-1692930.0</v>
-      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
-      <c r="AM43" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
@@ -20853,87 +18528,37 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P44" s="1"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U44" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0</v>
-      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>-1697130.0</v>
-      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
-      <c r="AM44" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="45" spans="1:39">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45" s="1">
-        <v>55</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2"/>
@@ -20942,87 +18567,37 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
-      </c>
-      <c r="X45" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0</v>
-      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF45" s="1">
-        <v>-1701330.0</v>
-      </c>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
-      <c r="AM45" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46" s="1">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2"/>
@@ -21031,87 +18606,37 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T46" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W46" s="1">
-        <v>0</v>
-      </c>
-      <c r="X46" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB46" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="1">
-        <v>0</v>
-      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF46" s="1">
-        <v>-1705530.0</v>
-      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
-      <c r="AM46" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="47" spans="1:39">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47" s="1">
-        <v>57</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2"/>
@@ -21120,87 +18645,37 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T47" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>-1709730.0</v>
-      </c>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
-      <c r="AM47" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="48" spans="1:39">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48" s="1">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2"/>
@@ -21209,87 +18684,37 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P48" s="1"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T48" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>0</v>
-      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>-1713930.0</v>
-      </c>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
-      <c r="AM48" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49" s="1">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2"/>
@@ -21298,87 +18723,37 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W49" s="1">
-        <v>0</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>-1718130.0</v>
-      </c>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
       <c r="AG49" s="2"/>
-      <c r="AH49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
-      <c r="AM49" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50" s="1">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2"/>
@@ -21387,87 +18762,37 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0</v>
-      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>-1722330.0</v>
-      </c>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
-      <c r="AM50" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51" s="1">
-        <v>61</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
@@ -21476,157 +18801,68 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="6">
-        <v>3000000.0</v>
-      </c>
+      <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>2925357.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>750000.0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="W51" s="1">
-        <v>0</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>4200.0</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0.003</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0</v>
-      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="1">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF51" s="1">
-        <v>-1726530.0</v>
-      </c>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
       <c r="AG51" s="2"/>
-      <c r="AH51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AI51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
-      <c r="AM51" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="A52" s="15">
-        <v>2057</v>
-      </c>
-      <c r="B52" s="5">
-        <v>62</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="S52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="T52" s="5">
-        <v>2925357.0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>750000.0</v>
-      </c>
-      <c r="V52" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="W52" s="5">
-        <v>0</v>
-      </c>
-      <c r="X52" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="Y52" s="5">
-        <v>4200.0</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0.003</v>
-      </c>
-      <c r="AA52" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="AB52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="16"/>
-      <c r="AE52" s="5">
-        <v>-4200.0</v>
-      </c>
-      <c r="AF52" s="5">
-        <v>-1730730.0</v>
-      </c>
-      <c r="AG52" s="16"/>
-      <c r="AH52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AI52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AJ52" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="16"/>
-      <c r="AM52" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="3"/>
@@ -22745,7 +19981,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -23049,160 +20285,6 @@
         <v>100.0</v>
       </c>
       <c r="C38">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>2044</v>
-      </c>
-      <c r="B39">
-        <v>100.0</v>
-      </c>
-      <c r="C39">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>2045</v>
-      </c>
-      <c r="B40">
-        <v>100.0</v>
-      </c>
-      <c r="C40">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>2046</v>
-      </c>
-      <c r="B41">
-        <v>100.0</v>
-      </c>
-      <c r="C41">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>2047</v>
-      </c>
-      <c r="B42">
-        <v>100.0</v>
-      </c>
-      <c r="C42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>2048</v>
-      </c>
-      <c r="B43">
-        <v>100.0</v>
-      </c>
-      <c r="C43">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>2049</v>
-      </c>
-      <c r="B44">
-        <v>100.0</v>
-      </c>
-      <c r="C44">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>2050</v>
-      </c>
-      <c r="B45">
-        <v>100.0</v>
-      </c>
-      <c r="C45">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>2051</v>
-      </c>
-      <c r="B46">
-        <v>100.0</v>
-      </c>
-      <c r="C46">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>2052</v>
-      </c>
-      <c r="B47">
-        <v>100.0</v>
-      </c>
-      <c r="C47">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>2053</v>
-      </c>
-      <c r="B48">
-        <v>100.0</v>
-      </c>
-      <c r="C48">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>2054</v>
-      </c>
-      <c r="B49">
-        <v>100.0</v>
-      </c>
-      <c r="C49">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>2055</v>
-      </c>
-      <c r="B50">
-        <v>100.0</v>
-      </c>
-      <c r="C50">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
-        <v>2056</v>
-      </c>
-      <c r="B51">
-        <v>100.0</v>
-      </c>
-      <c r="C51">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
-        <v>2057</v>
-      </c>
-      <c r="B52">
-        <v>100.0</v>
-      </c>
-      <c r="C52">
         <v>100.0</v>
       </c>
     </row>

--- a/tests/Feature/config/mortgage_zero.xlsx
+++ b/tests/Feature/config/mortgage_zero.xlsx
@@ -2144,10 +2144,10 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>-162573.0</v>
+        <v>-151146.0</v>
       </c>
       <c r="AH19" s="8">
-        <v>-325146.0</v>
+        <v>-313719.0</v>
       </c>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="8">
@@ -2239,10 +2239,10 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>-162573.0</v>
+        <v>-132907.0</v>
       </c>
       <c r="AH20" s="1">
-        <v>-487719.0</v>
+        <v>-446626.0</v>
       </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="1">
@@ -2334,10 +2334,10 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>-162573.0</v>
+        <v>-112117.0</v>
       </c>
       <c r="AH21" s="1">
-        <v>-650292.0</v>
+        <v>-558743.0</v>
       </c>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="1">
@@ -2429,10 +2429,10 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>-162573.0</v>
+        <v>-88074.0</v>
       </c>
       <c r="AH22" s="1">
-        <v>-812865.0</v>
+        <v>-646817.0</v>
       </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="1">
@@ -2524,10 +2524,10 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>-162573.0</v>
+        <v>-59728.0</v>
       </c>
       <c r="AH23" s="1">
-        <v>-975438.0</v>
+        <v>-706545.0</v>
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="1">
@@ -2619,10 +2619,10 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>-121403.0</v>
+        <v>-25412.0</v>
       </c>
       <c r="AH24" s="1">
-        <v>-1096841.0</v>
+        <v>-731957.0</v>
       </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="1">
@@ -2717,7 +2717,7 @@
         <v>7227.0</v>
       </c>
       <c r="AH25" s="1">
-        <v>-1089614.0</v>
+        <v>-724730.0</v>
       </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
@@ -2812,7 +2812,7 @@
         <v>7227.0</v>
       </c>
       <c r="AH26" s="1">
-        <v>-1082387.0</v>
+        <v>-717503.0</v>
       </c>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
@@ -2907,7 +2907,7 @@
         <v>7227.0</v>
       </c>
       <c r="AH27" s="1">
-        <v>-1075160.0</v>
+        <v>-710276.0</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
@@ -3002,7 +3002,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH28" s="1">
-        <v>-909560.0</v>
+        <v>-544676.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -3097,7 +3097,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH29" s="1">
-        <v>-743960.0</v>
+        <v>-379076.0</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -3192,7 +3192,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH30" s="1">
-        <v>-578360.0</v>
+        <v>-213476.0</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -3287,7 +3287,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH31" s="1">
-        <v>-412760.0</v>
+        <v>-47876.0</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -3382,7 +3382,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH32" s="1">
-        <v>-247160.0</v>
+        <v>117724.0</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -3477,7 +3477,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH33" s="1">
-        <v>-81560.0</v>
+        <v>283324.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -3572,7 +3572,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH34" s="1">
-        <v>84040.0</v>
+        <v>448924.0</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -3667,7 +3667,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH35" s="1">
-        <v>249640.0</v>
+        <v>614524.0</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -3762,7 +3762,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH36" s="1">
-        <v>415240.0</v>
+        <v>780124.0</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -3857,7 +3857,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH37" s="1">
-        <v>580840.0</v>
+        <v>945724.0</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -3952,7 +3952,7 @@
         <v>165600.0</v>
       </c>
       <c r="AH38" s="5">
-        <v>746440.0</v>
+        <v>1111324.0</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
@@ -6816,10 +6816,10 @@
       </c>
       <c r="AF19" s="9"/>
       <c r="AG19" s="8">
-        <v>0</v>
+        <v>11427</v>
       </c>
       <c r="AH19" s="8">
-        <v>0.0</v>
+        <v>11427.0</v>
       </c>
       <c r="AI19" s="9">
         <v>0.452209</v>
@@ -6925,10 +6925,10 @@
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="1">
-        <v>0</v>
+        <v>29666</v>
       </c>
       <c r="AH20" s="1">
-        <v>0.0</v>
+        <v>41093.0</v>
       </c>
       <c r="AI20" s="2">
         <v>0.357421</v>
@@ -7034,10 +7034,10 @@
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="1">
-        <v>0</v>
+        <v>50456</v>
       </c>
       <c r="AH21" s="1">
-        <v>0.0</v>
+        <v>91549.0</v>
       </c>
       <c r="AI21" s="2">
         <v>0.26765733333333</v>
@@ -7143,10 +7143,10 @@
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
-        <v>0</v>
+        <v>74499</v>
       </c>
       <c r="AH22" s="1">
-        <v>0.0</v>
+        <v>166048.0</v>
       </c>
       <c r="AI22" s="2">
         <v>0.18410433333333</v>
@@ -7252,10 +7252,10 @@
       </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="1">
-        <v>0</v>
+        <v>102845</v>
       </c>
       <c r="AH23" s="1">
-        <v>0.0</v>
+        <v>268893.0</v>
       </c>
       <c r="AI23" s="2">
         <v>0.10832066666667</v>
@@ -7361,10 +7361,10 @@
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="1">
-        <v>41170.0</v>
+        <v>137161</v>
       </c>
       <c r="AH24" s="1">
-        <v>41170.0</v>
+        <v>406054.0</v>
       </c>
       <c r="AI24" s="2">
         <v>0.042452333333333</v>
@@ -7456,10 +7456,10 @@
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH25" s="1">
-        <v>210970.0</v>
+        <v>575854.0</v>
       </c>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="1">
@@ -7547,10 +7547,10 @@
       </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH26" s="1">
-        <v>380770.0</v>
+        <v>745654.0</v>
       </c>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="1">
@@ -7638,10 +7638,10 @@
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH27" s="1">
-        <v>550570.0</v>
+        <v>915454.0</v>
       </c>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1">
@@ -7729,10 +7729,10 @@
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH28" s="1">
-        <v>720370.0</v>
+        <v>1085254.0</v>
       </c>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="1">
@@ -7820,10 +7820,10 @@
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH29" s="1">
-        <v>890170.0</v>
+        <v>1255054.0</v>
       </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="1">
@@ -7911,10 +7911,10 @@
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH30" s="1">
-        <v>1059970.0</v>
+        <v>1424854.0</v>
       </c>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="1">
@@ -8002,10 +8002,10 @@
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH31" s="1">
-        <v>1229770.0</v>
+        <v>1594654.0</v>
       </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="1">
@@ -8093,10 +8093,10 @@
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH32" s="1">
-        <v>1399570.0</v>
+        <v>1764454.0</v>
       </c>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1">
@@ -8184,10 +8184,10 @@
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH33" s="1">
-        <v>1569370.0</v>
+        <v>1934254.0</v>
       </c>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="1">
@@ -8275,10 +8275,10 @@
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH34" s="1">
-        <v>1739170.0</v>
+        <v>2104054.0</v>
       </c>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="1">
@@ -8366,10 +8366,10 @@
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH35" s="1">
-        <v>1908970.0</v>
+        <v>2273854.0</v>
       </c>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="1">
@@ -8457,10 +8457,10 @@
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH36" s="1">
-        <v>2078770.0</v>
+        <v>2443654.0</v>
       </c>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="1">
@@ -8548,10 +8548,10 @@
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH37" s="1">
-        <v>2248570.0</v>
+        <v>2613454.0</v>
       </c>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="1">
@@ -8639,10 +8639,10 @@
       </c>
       <c r="AF38" s="16"/>
       <c r="AG38" s="5">
-        <v>169800.0</v>
+        <v>169800</v>
       </c>
       <c r="AH38" s="5">
-        <v>2418370.0</v>
+        <v>2783254.0</v>
       </c>
       <c r="AI38" s="16"/>
       <c r="AJ38" s="5">
